--- a/good_rbrush/keepingtabs_goodrbrush.xlsx
+++ b/good_rbrush/keepingtabs_goodrbrush.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinson_lab/Documents/RAD2/good_rbrush/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD65345-88CB-E04B-9738-A27CB69A20A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D02D80F-CC0F-FE44-B97B-2EB240E31BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{91869BB1-4A8F-8E4D-BA74-EB15BB630210}"/>
+    <workbookView xWindow="5160" yWindow="2060" windowWidth="32820" windowHeight="19300" activeTab="1" xr2:uid="{91869BB1-4A8F-8E4D-BA74-EB15BB630210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="with O and G" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -375,19 +376,58 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>removed from structure</t>
+  </si>
+  <si>
+    <t>C not S</t>
+  </si>
+  <si>
+    <t>S not C</t>
+  </si>
+  <si>
+    <t>MOB_EN_G_05</t>
+  </si>
+  <si>
+    <t>_G</t>
+  </si>
+  <si>
+    <t>MOB_EN_G_06</t>
+  </si>
+  <si>
+    <t>MOB_EN_G_07</t>
+  </si>
+  <si>
+    <t>SLV_EN_O_01</t>
+  </si>
+  <si>
+    <t>_O</t>
+  </si>
+  <si>
+    <t>SLV_EN_O_03</t>
+  </si>
+  <si>
+    <t>SLV_EN_O_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,8 +450,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,19 +768,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D48B9B-FC4B-BB4E-905C-2E41992A16AF}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +790,11 @@
       <c r="C1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -759,8 +804,11 @@
       <c r="C2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -768,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -776,15 +824,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -792,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -800,10 +854,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -811,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -819,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -827,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -835,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -843,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -851,7 +908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -859,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -867,7 +924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -875,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -883,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -891,15 +948,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -907,7 +967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -915,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -923,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -931,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -939,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -947,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -955,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -963,7 +1023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -971,7 +1031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -979,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -987,7 +1047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -995,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1265,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -1275,8 +1335,11 @@
       <c r="C65" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -1287,7 +1350,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -1295,7 +1358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -1303,7 +1366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -1311,7 +1374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -1319,7 +1382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -1327,7 +1390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -1335,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -1343,7 +1406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -1351,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -1359,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -1367,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -1375,7 +1438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -1383,7 +1446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -1391,7 +1454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -1399,7 +1462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -1407,7 +1470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -1415,7 +1478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -1423,7 +1486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -1431,7 +1494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -1439,7 +1502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -1447,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -1455,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -1463,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -1471,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -1479,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -1487,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -1495,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -1503,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -1513,8 +1576,11 @@
       <c r="C94" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -1522,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -1576,6 +1642,1441 @@
       </c>
       <c r="B102" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A005D-7026-4F40-B9E1-C7FFB83FE6D9}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/good_rbrush/keepingtabs_goodrbrush.xlsx
+++ b/good_rbrush/keepingtabs_goodrbrush.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinson_lab/Documents/RAD2/good_rbrush/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D02D80F-CC0F-FE44-B97B-2EB240E31BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05569929-EAE1-F44B-9165-A1BEF1446A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="2060" windowWidth="32820" windowHeight="19300" activeTab="1" xr2:uid="{91869BB1-4A8F-8E4D-BA74-EB15BB630210}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -409,13 +409,34 @@
   </si>
   <si>
     <t>SLV_EN_O_07</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>prop.missing</t>
+  </si>
+  <si>
+    <t>mean.depth</t>
+  </si>
+  <si>
+    <t>n_loci</t>
+  </si>
+  <si>
+    <t>n_used_fw_reads</t>
+  </si>
+  <si>
+    <t>mean_cov</t>
+  </si>
+  <si>
+    <t>mean_cov_ns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,6 +449,14 @@
       <color theme="1"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,9 +479,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,48 +1681,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A005D-7026-4F40-B9E1-C7FFB83FE6D9}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="1">
+        <v>0.8832468</v>
+      </c>
+      <c r="H2" s="1">
+        <v>19.831469999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>66679</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1414187</v>
+      </c>
+      <c r="K2" s="3">
+        <v>21.209</v>
+      </c>
+      <c r="L2" s="3">
+        <v>24.145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1702,11 +1774,26 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>0.85515370000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>22.59956</v>
+      </c>
+      <c r="I3">
+        <v>81350</v>
+      </c>
+      <c r="J3">
+        <v>1937178</v>
+      </c>
+      <c r="K3">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="L3">
+        <v>28.524999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1716,11 +1803,26 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>0.84656129999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>19.887339999999998</v>
+      </c>
+      <c r="I4">
+        <v>90416</v>
+      </c>
+      <c r="J4">
+        <v>1895252</v>
+      </c>
+      <c r="K4">
+        <v>20.960999999999999</v>
+      </c>
+      <c r="L4">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1730,11 +1832,26 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>0.8499546</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20.220700000000001</v>
+      </c>
+      <c r="I5">
+        <v>89601</v>
+      </c>
+      <c r="J5">
+        <v>1964469</v>
+      </c>
+      <c r="K5">
+        <v>21.925000000000001</v>
+      </c>
+      <c r="L5">
+        <v>25.091999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1744,11 +1861,26 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>0.83995030000000004</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20.25234</v>
+      </c>
+      <c r="I6">
+        <v>94506</v>
+      </c>
+      <c r="J6">
+        <v>2040750</v>
+      </c>
+      <c r="K6">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="L6">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1758,11 +1890,26 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>0.89082600000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20.263760000000001</v>
+      </c>
+      <c r="I7">
+        <v>63001</v>
+      </c>
+      <c r="J7">
+        <v>1406343</v>
+      </c>
+      <c r="K7">
+        <v>22.323</v>
+      </c>
+      <c r="L7">
+        <v>24.443999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1772,11 +1919,26 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>0.87637960000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>24.29139</v>
+      </c>
+      <c r="I8">
+        <v>72507</v>
+      </c>
+      <c r="J8">
+        <v>1848345</v>
+      </c>
+      <c r="K8">
+        <v>25.492000000000001</v>
+      </c>
+      <c r="L8">
+        <v>29.716999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1786,11 +1948,26 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>0.86351109999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18.699960000000001</v>
+      </c>
+      <c r="I9">
+        <v>81389</v>
+      </c>
+      <c r="J9">
+        <v>1654385</v>
+      </c>
+      <c r="K9">
+        <v>20.327000000000002</v>
+      </c>
+      <c r="L9">
+        <v>22.492999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1800,11 +1977,26 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>0.90961250000000005</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18.16461</v>
+      </c>
+      <c r="I10">
+        <v>52653</v>
+      </c>
+      <c r="J10">
+        <v>1109391</v>
+      </c>
+      <c r="K10">
+        <v>21.07</v>
+      </c>
+      <c r="L10">
+        <v>21.498999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1814,11 +2006,26 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>0.86165550000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20.803349999999998</v>
+      </c>
+      <c r="I11">
+        <v>83803</v>
+      </c>
+      <c r="J11">
+        <v>1868032</v>
+      </c>
+      <c r="K11">
+        <v>22.291</v>
+      </c>
+      <c r="L11">
+        <v>25.055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1828,11 +2035,26 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>0.84776669999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>21.52563</v>
+      </c>
+      <c r="I12">
+        <v>92237</v>
+      </c>
+      <c r="J12">
+        <v>2105655</v>
+      </c>
+      <c r="K12">
+        <v>22.829000000000001</v>
+      </c>
+      <c r="L12">
+        <v>26.539000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1842,11 +2064,26 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>0.87882610000000005</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19.35521</v>
+      </c>
+      <c r="I13">
+        <v>69474</v>
+      </c>
+      <c r="J13">
+        <v>1468710</v>
+      </c>
+      <c r="K13">
+        <v>21.14</v>
+      </c>
+      <c r="L13">
+        <v>23.846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1856,11 +2093,26 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <v>0.80519149999999995</v>
+      </c>
+      <c r="H14" s="1">
+        <v>22.90729</v>
+      </c>
+      <c r="I14">
+        <v>117837</v>
+      </c>
+      <c r="J14">
+        <v>2745424</v>
+      </c>
+      <c r="K14">
+        <v>23.297999999999998</v>
+      </c>
+      <c r="L14">
+        <v>29.521000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1870,11 +2122,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>0.89521830000000002</v>
+      </c>
+      <c r="H15" s="1">
+        <v>22.0014</v>
+      </c>
+      <c r="I15">
+        <v>66750</v>
+      </c>
+      <c r="J15">
+        <v>1503201</v>
+      </c>
+      <c r="K15">
+        <v>22.52</v>
+      </c>
+      <c r="L15">
+        <v>26.283000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1884,11 +2151,26 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>0.89119380000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>18.59122</v>
+      </c>
+      <c r="I16">
+        <v>62022</v>
+      </c>
+      <c r="J16">
+        <v>1276741</v>
+      </c>
+      <c r="K16">
+        <v>20.585000000000001</v>
+      </c>
+      <c r="L16">
+        <v>22.725999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1898,11 +2180,35 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.86565630000000005</v>
+      </c>
+      <c r="H17" s="1">
+        <v>19.37059</v>
+      </c>
+      <c r="I17">
+        <v>79279</v>
+      </c>
+      <c r="J17">
+        <v>1640281</v>
+      </c>
+      <c r="K17">
+        <v>20.69</v>
+      </c>
+      <c r="L17">
+        <v>24.463999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1912,11 +2218,26 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>0.88557229999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>19.27506</v>
+      </c>
+      <c r="I18">
+        <v>64419</v>
+      </c>
+      <c r="J18">
+        <v>1362019</v>
+      </c>
+      <c r="K18">
+        <v>21.143000000000001</v>
+      </c>
+      <c r="L18">
+        <v>23.922999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1926,11 +2247,26 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>0.87903489999999995</v>
+      </c>
+      <c r="H19" s="1">
+        <v>21.02431</v>
+      </c>
+      <c r="I19">
+        <v>68820</v>
+      </c>
+      <c r="J19">
+        <v>1522370</v>
+      </c>
+      <c r="K19">
+        <v>22.120999999999999</v>
+      </c>
+      <c r="L19">
+        <v>25.829000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1940,11 +2276,26 @@
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>0.8127991</v>
+      </c>
+      <c r="H20" s="1">
+        <v>22.328749999999999</v>
+      </c>
+      <c r="I20">
+        <v>108567</v>
+      </c>
+      <c r="J20">
+        <v>2534436</v>
+      </c>
+      <c r="K20">
+        <v>23.344000000000001</v>
+      </c>
+      <c r="L20">
+        <v>29.039000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1954,11 +2305,26 @@
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>0.88308070000000005</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19.07396</v>
+      </c>
+      <c r="I21">
+        <v>64384</v>
+      </c>
+      <c r="J21">
+        <v>1354596</v>
+      </c>
+      <c r="K21">
+        <v>21.039000000000001</v>
+      </c>
+      <c r="L21">
+        <v>23.747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1968,11 +2334,26 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>0.8524794</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20.80659</v>
+      </c>
+      <c r="I22">
+        <v>84498</v>
+      </c>
+      <c r="J22">
+        <v>1921814</v>
+      </c>
+      <c r="K22">
+        <v>22.744</v>
+      </c>
+      <c r="L22">
+        <v>26.468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1982,11 +2363,26 @@
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <v>0.84616499999999994</v>
+      </c>
+      <c r="H23" s="1">
+        <v>23.964310000000001</v>
+      </c>
+      <c r="I23">
+        <v>88797</v>
+      </c>
+      <c r="J23">
+        <v>2265766</v>
+      </c>
+      <c r="K23">
+        <v>25.515999999999998</v>
+      </c>
+      <c r="L23">
+        <v>30.436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1996,11 +2392,26 @@
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>0.85318890000000003</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22.83614</v>
+      </c>
+      <c r="I24">
+        <v>84584</v>
+      </c>
+      <c r="J24">
+        <v>2053162</v>
+      </c>
+      <c r="K24">
+        <v>24.274000000000001</v>
+      </c>
+      <c r="L24">
+        <v>28.251000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2010,11 +2421,26 @@
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>0.84584459999999995</v>
+      </c>
+      <c r="H25" s="1">
+        <v>23.517869999999998</v>
+      </c>
+      <c r="I25">
+        <v>88242</v>
+      </c>
+      <c r="J25">
+        <v>2225849</v>
+      </c>
+      <c r="K25">
+        <v>25.224</v>
+      </c>
+      <c r="L25">
+        <v>29.917000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2024,11 +2450,26 @@
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <v>0.87179030000000002</v>
+      </c>
+      <c r="H26" s="1">
+        <v>22.210979999999999</v>
+      </c>
+      <c r="I26">
+        <v>72821</v>
+      </c>
+      <c r="J26">
+        <v>1755685</v>
+      </c>
+      <c r="K26">
+        <v>24.11</v>
+      </c>
+      <c r="L26">
+        <v>27.654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2038,11 +2479,26 @@
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>0.81053770000000003</v>
+      </c>
+      <c r="H27" s="1">
+        <v>23.288869999999999</v>
+      </c>
+      <c r="I27">
+        <v>112036</v>
+      </c>
+      <c r="J27">
+        <v>2743015</v>
+      </c>
+      <c r="K27">
+        <v>24.483000000000001</v>
+      </c>
+      <c r="L27">
+        <v>29.899000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2052,11 +2508,26 @@
       <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>0.8524912</v>
+      </c>
+      <c r="H28" s="1">
+        <v>21.596170000000001</v>
+      </c>
+      <c r="I28">
+        <v>85022</v>
+      </c>
+      <c r="J28">
+        <v>1995041</v>
+      </c>
+      <c r="K28">
+        <v>23.465</v>
+      </c>
+      <c r="L28">
+        <v>27.361999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2066,11 +2537,26 @@
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>0.88812800000000003</v>
+      </c>
+      <c r="H29" s="1">
+        <v>21.36148</v>
+      </c>
+      <c r="I29">
+        <v>64934</v>
+      </c>
+      <c r="J29">
+        <v>1479008</v>
+      </c>
+      <c r="K29">
+        <v>22.777000000000001</v>
+      </c>
+      <c r="L29">
+        <v>25.596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2080,11 +2566,26 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>0.81706330000000005</v>
+      </c>
+      <c r="H30" s="1">
+        <v>23.003799999999998</v>
+      </c>
+      <c r="I30">
+        <v>114093</v>
+      </c>
+      <c r="J30">
+        <v>2641870</v>
+      </c>
+      <c r="K30">
+        <v>23.155000000000001</v>
+      </c>
+      <c r="L30">
+        <v>28.771000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2094,11 +2595,26 @@
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>0.90674129999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <v>20.003920000000001</v>
+      </c>
+      <c r="I31">
+        <v>54172</v>
+      </c>
+      <c r="J31">
+        <v>1186177</v>
+      </c>
+      <c r="K31">
+        <v>21.896000000000001</v>
+      </c>
+      <c r="L31">
+        <v>24.248999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2108,11 +2624,26 @@
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <v>0.83456129999999995</v>
+      </c>
+      <c r="H32" s="1">
+        <v>19.462969999999999</v>
+      </c>
+      <c r="I32">
+        <v>96062</v>
+      </c>
+      <c r="J32">
+        <v>2032966</v>
+      </c>
+      <c r="K32">
+        <v>21.163</v>
+      </c>
+      <c r="L32">
+        <v>25.059000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2122,11 +2653,26 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>0.88838419999999996</v>
+      </c>
+      <c r="H33" s="1">
+        <v>17.92576</v>
+      </c>
+      <c r="I33">
+        <v>63643</v>
+      </c>
+      <c r="J33">
+        <v>1334775</v>
+      </c>
+      <c r="K33">
+        <v>20.972999999999999</v>
+      </c>
+      <c r="L33">
+        <v>23.116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2136,950 +2682,2002 @@
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <v>0.91235330000000003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>18.92747</v>
+      </c>
+      <c r="I34">
+        <v>49006</v>
+      </c>
+      <c r="J34">
+        <v>1040716</v>
+      </c>
+      <c r="K34">
+        <v>21.236999999999998</v>
+      </c>
+      <c r="L34">
+        <v>23.190999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.91510820000000004</v>
+      </c>
+      <c r="H35" s="1">
+        <v>19.236560000000001</v>
+      </c>
+      <c r="I35">
+        <v>53258</v>
+      </c>
+      <c r="J35">
+        <v>1177829</v>
+      </c>
+      <c r="K35">
+        <v>22.116</v>
+      </c>
+      <c r="L35">
+        <v>22.495999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.83235689999999996</v>
+      </c>
+      <c r="H36" s="1">
+        <v>23.474679999999999</v>
+      </c>
+      <c r="I36">
+        <v>103827</v>
+      </c>
+      <c r="J36">
+        <v>2647136</v>
+      </c>
+      <c r="K36">
+        <v>25.495999999999999</v>
+      </c>
+      <c r="L36">
+        <v>29.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37">
+        <v>0.83011210000000002</v>
+      </c>
+      <c r="H37" s="1">
+        <v>26.921250000000001</v>
+      </c>
+      <c r="I37">
+        <v>102426</v>
+      </c>
+      <c r="J37">
+        <v>2929487</v>
+      </c>
+      <c r="K37">
+        <v>28.600999999999999</v>
+      </c>
+      <c r="L37">
+        <v>34.973999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.90035569999999998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>17.298680000000001</v>
+      </c>
+      <c r="I38">
+        <v>58564</v>
+      </c>
+      <c r="J38">
+        <v>1122836</v>
+      </c>
+      <c r="K38">
+        <v>19.172999999999998</v>
+      </c>
+      <c r="L38">
+        <v>21.425999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.8875537</v>
+      </c>
+      <c r="H39" s="1">
+        <v>19.43919</v>
+      </c>
+      <c r="I39">
+        <v>64394</v>
+      </c>
+      <c r="J39">
+        <v>1352093</v>
+      </c>
+      <c r="K39">
+        <v>20.997</v>
+      </c>
+      <c r="L39">
+        <v>24.259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.87182119999999996</v>
+      </c>
+      <c r="H40" s="1">
+        <v>20.61103</v>
+      </c>
+      <c r="I40">
+        <v>73307</v>
+      </c>
+      <c r="J40">
+        <v>1587613</v>
+      </c>
+      <c r="K40">
+        <v>21.657</v>
+      </c>
+      <c r="L40">
+        <v>25.972999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.90285680000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <v>17.958690000000001</v>
+      </c>
+      <c r="I41">
+        <v>57131</v>
+      </c>
+      <c r="J41">
+        <v>1150696</v>
+      </c>
+      <c r="K41">
+        <v>20.140999999999998</v>
+      </c>
+      <c r="L41">
+        <v>22.658999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.87700599999999995</v>
+      </c>
+      <c r="H42" s="1">
+        <v>19.307220000000001</v>
+      </c>
+      <c r="I42">
+        <v>69830</v>
+      </c>
+      <c r="J42">
+        <v>1476302</v>
+      </c>
+      <c r="K42">
+        <v>21.140999999999998</v>
+      </c>
+      <c r="L42">
+        <v>24.289000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="G43" s="1">
+        <v>0.87648630000000005</v>
+      </c>
+      <c r="H43" s="1">
+        <v>22.688569999999999</v>
+      </c>
+      <c r="I43">
+        <v>71003</v>
+      </c>
+      <c r="J43">
+        <v>1744622</v>
+      </c>
+      <c r="K43">
+        <v>24.571000000000002</v>
+      </c>
+      <c r="L43">
+        <v>27.722000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="G44" s="1">
+        <v>0.82949269999999997</v>
+      </c>
+      <c r="H44" s="1">
+        <v>26.020389999999999</v>
+      </c>
+      <c r="I44">
+        <v>100228</v>
+      </c>
+      <c r="J44">
+        <v>2748274</v>
+      </c>
+      <c r="K44">
+        <v>27.42</v>
+      </c>
+      <c r="L44">
+        <v>33.215000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.88250169999999994</v>
+      </c>
+      <c r="H45" s="1">
+        <v>19.112290000000002</v>
+      </c>
+      <c r="I45">
+        <v>71018</v>
+      </c>
+      <c r="J45">
+        <v>1441479</v>
+      </c>
+      <c r="K45">
+        <v>20.297000000000001</v>
+      </c>
+      <c r="L45">
+        <v>23.058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="E46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.89350269999999998</v>
+      </c>
+      <c r="H46" s="1">
+        <v>20.903320000000001</v>
+      </c>
+      <c r="I46">
+        <v>69207</v>
+      </c>
+      <c r="J46">
+        <v>1530178</v>
+      </c>
+      <c r="K46">
+        <v>22.11</v>
+      </c>
+      <c r="L46">
+        <v>24.888000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="G47" s="1">
+        <v>0.86458610000000002</v>
+      </c>
+      <c r="H47" s="1">
+        <v>22.04645</v>
+      </c>
+      <c r="I47">
+        <v>80672</v>
+      </c>
+      <c r="J47">
+        <v>1915353</v>
+      </c>
+      <c r="K47">
+        <v>23.742000000000001</v>
+      </c>
+      <c r="L47">
+        <v>26.827000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="G48" s="1">
+        <v>0.87192080000000005</v>
+      </c>
+      <c r="H48" s="1">
+        <v>20.328489999999999</v>
+      </c>
+      <c r="I48">
+        <v>76925</v>
+      </c>
+      <c r="J48">
+        <v>1731635</v>
+      </c>
+      <c r="K48">
+        <v>22.510999999999999</v>
+      </c>
+      <c r="L48">
+        <v>24.872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="G49" s="1">
+        <v>0.82842490000000002</v>
+      </c>
+      <c r="H49" s="1">
+        <v>22.713159999999998</v>
+      </c>
+      <c r="I49">
+        <v>104657</v>
+      </c>
+      <c r="J49">
+        <v>2546687</v>
+      </c>
+      <c r="K49">
+        <v>24.334</v>
+      </c>
+      <c r="L49">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.86700410000000006</v>
+      </c>
+      <c r="H50" s="1">
+        <v>20.401409999999998</v>
+      </c>
+      <c r="I50">
+        <v>78224</v>
+      </c>
+      <c r="J50">
+        <v>1707078</v>
+      </c>
+      <c r="K50">
+        <v>21.823</v>
+      </c>
+      <c r="L50">
+        <v>25.478000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.87695140000000005</v>
+      </c>
+      <c r="H51" s="1">
+        <v>19.536210000000001</v>
+      </c>
+      <c r="I51">
+        <v>72523</v>
+      </c>
+      <c r="J51">
+        <v>1510931</v>
+      </c>
+      <c r="K51">
+        <v>20.834</v>
+      </c>
+      <c r="L51">
+        <v>23.808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.85420450000000003</v>
+      </c>
+      <c r="H52" s="1">
+        <v>22.59864</v>
+      </c>
+      <c r="I52">
+        <v>88186</v>
+      </c>
+      <c r="J52">
+        <v>2035169</v>
+      </c>
+      <c r="K52">
+        <v>23.077999999999999</v>
+      </c>
+      <c r="L52">
+        <v>28.245000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.84135499999999996</v>
+      </c>
+      <c r="H53" s="1">
+        <v>21.5228</v>
+      </c>
+      <c r="I53">
+        <v>95565</v>
+      </c>
+      <c r="J53">
+        <v>2125491</v>
+      </c>
+      <c r="K53">
+        <v>22.241</v>
+      </c>
+      <c r="L53">
+        <v>26.623999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.85247700000000004</v>
+      </c>
+      <c r="H54" s="1">
+        <v>20.51756</v>
+      </c>
+      <c r="I54">
+        <v>87548</v>
+      </c>
+      <c r="J54">
+        <v>1871142</v>
+      </c>
+      <c r="K54">
+        <v>21.373000000000001</v>
+      </c>
+      <c r="L54">
+        <v>25.295000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G55" s="1">
+        <v>0.8816214</v>
+      </c>
+      <c r="H55" s="1">
+        <v>20.522480000000002</v>
+      </c>
+      <c r="I55">
+        <v>66223</v>
+      </c>
+      <c r="J55">
+        <v>1529683</v>
+      </c>
+      <c r="K55">
+        <v>23.099</v>
+      </c>
+      <c r="L55">
+        <v>26.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G56" s="1">
+        <v>0.898455</v>
+      </c>
+      <c r="H56" s="1">
+        <v>18.6509</v>
+      </c>
+      <c r="I56">
+        <v>56367</v>
+      </c>
+      <c r="J56">
+        <v>1199800</v>
+      </c>
+      <c r="K56">
+        <v>21.286000000000001</v>
+      </c>
+      <c r="L56">
+        <v>23.338999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.89524440000000005</v>
+      </c>
+      <c r="H57" s="1">
+        <v>18.307320000000001</v>
+      </c>
+      <c r="I57">
+        <v>60653</v>
+      </c>
+      <c r="J57">
+        <v>1324101</v>
+      </c>
+      <c r="K57">
+        <v>21.831</v>
+      </c>
+      <c r="L57">
+        <v>23.965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.86985869999999998</v>
+      </c>
+      <c r="H58" s="1">
+        <v>19.904800000000002</v>
+      </c>
+      <c r="I58">
+        <v>72427</v>
+      </c>
+      <c r="J58">
+        <v>1575163</v>
+      </c>
+      <c r="K58">
+        <v>21.748000000000001</v>
+      </c>
+      <c r="L58">
+        <v>25.324000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.89302809999999999</v>
+      </c>
+      <c r="H59" s="1">
+        <v>17.338889999999999</v>
+      </c>
+      <c r="I59">
+        <v>59991</v>
+      </c>
+      <c r="J59">
+        <v>1199391</v>
+      </c>
+      <c r="K59">
+        <v>19.992999999999999</v>
+      </c>
+      <c r="L59">
+        <v>21.783999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.87650530000000004</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20.101510000000001</v>
+      </c>
+      <c r="I60">
+        <v>70204</v>
+      </c>
+      <c r="J60">
+        <v>1517989</v>
+      </c>
+      <c r="K60">
+        <v>21.623000000000001</v>
+      </c>
+      <c r="L60">
+        <v>24.748999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.894841</v>
+      </c>
+      <c r="H61" s="1">
+        <v>23.05781</v>
+      </c>
+      <c r="I61">
+        <v>60404</v>
+      </c>
+      <c r="J61">
+        <v>1482540</v>
+      </c>
+      <c r="K61">
+        <v>24.544</v>
+      </c>
+      <c r="L61">
+        <v>28.106000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.86417560000000004</v>
+      </c>
+      <c r="H62" s="1">
+        <v>21.098520000000001</v>
+      </c>
+      <c r="I62">
+        <v>78348</v>
+      </c>
+      <c r="J62">
+        <v>1792797</v>
+      </c>
+      <c r="K62">
+        <v>22.882000000000001</v>
+      </c>
+      <c r="L62">
+        <v>26.969000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.87494629999999995</v>
+      </c>
+      <c r="H63" s="1">
+        <v>20.232109999999999</v>
+      </c>
+      <c r="I63">
+        <v>71270</v>
+      </c>
+      <c r="J63">
+        <v>1546371</v>
+      </c>
+      <c r="K63">
+        <v>21.696999999999999</v>
+      </c>
+      <c r="L63">
+        <v>24.626000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G64" s="1">
+        <v>0.86071109999999995</v>
+      </c>
+      <c r="H64" s="1">
+        <v>20.146609999999999</v>
+      </c>
+      <c r="I64">
+        <v>81609</v>
+      </c>
+      <c r="J64">
+        <v>1799919</v>
+      </c>
+      <c r="K64">
+        <v>22.055</v>
+      </c>
+      <c r="L64">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G65" s="1">
+        <v>0.8728842</v>
+      </c>
+      <c r="H65" s="1">
+        <v>19.643619999999999</v>
+      </c>
+      <c r="I65">
+        <v>73812</v>
+      </c>
+      <c r="J65">
+        <v>1648565</v>
+      </c>
+      <c r="K65">
+        <v>22.335000000000001</v>
+      </c>
+      <c r="L65">
+        <v>24.611000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G66">
+        <v>0.92761839999999995</v>
+      </c>
+      <c r="H66">
+        <v>18.21585</v>
+      </c>
+      <c r="I66">
+        <v>41941</v>
+      </c>
+      <c r="J66">
+        <v>926303</v>
+      </c>
+      <c r="K66">
+        <v>22.085999999999999</v>
+      </c>
+      <c r="L66">
+        <v>21.606999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G67">
+        <v>0.86531460000000004</v>
+      </c>
+      <c r="H67">
+        <v>25.174299999999999</v>
+      </c>
+      <c r="I67">
+        <v>79471</v>
+      </c>
+      <c r="J67">
+        <v>2214186</v>
+      </c>
+      <c r="K67">
+        <v>27.861999999999998</v>
+      </c>
+      <c r="L67">
+        <v>30.745999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G68">
+        <v>0.91576550000000001</v>
+      </c>
+      <c r="H68">
+        <v>20.452960000000001</v>
+      </c>
+      <c r="I68">
+        <v>49423</v>
+      </c>
+      <c r="J68">
+        <v>1230176</v>
+      </c>
+      <c r="K68">
+        <v>24.890999999999998</v>
+      </c>
+      <c r="L68">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.82524280000000005</v>
+      </c>
+      <c r="H69" s="1">
+        <v>27.148150000000001</v>
+      </c>
+      <c r="I69">
+        <v>115562</v>
+      </c>
+      <c r="J69">
+        <v>3082543</v>
+      </c>
+      <c r="K69">
+        <v>26.673999999999999</v>
+      </c>
+      <c r="L69">
+        <v>33.892000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.8292602</v>
+      </c>
+      <c r="H70" s="1">
+        <v>29.328589999999998</v>
+      </c>
+      <c r="I70">
+        <v>102830</v>
+      </c>
+      <c r="J70">
+        <v>3104298</v>
+      </c>
+      <c r="K70">
+        <v>30.189</v>
+      </c>
+      <c r="L70">
+        <v>38.155000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G71" s="1">
+        <v>0.81174559999999996</v>
+      </c>
+      <c r="H71" s="1">
+        <v>26.28762</v>
+      </c>
+      <c r="I71">
+        <v>113095</v>
+      </c>
+      <c r="J71">
+        <v>3082170</v>
+      </c>
+      <c r="K71">
+        <v>27.253</v>
+      </c>
+      <c r="L71">
+        <v>33.432000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
+        <v>65</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.83313760000000003</v>
+      </c>
+      <c r="H72" s="1">
+        <v>24.996169999999999</v>
+      </c>
+      <c r="I72">
+        <v>94349</v>
+      </c>
+      <c r="J72">
+        <v>2438652</v>
+      </c>
+      <c r="K72">
+        <v>25.847000000000001</v>
+      </c>
+      <c r="L72">
+        <v>32.561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>66</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.81289169999999999</v>
+      </c>
+      <c r="H73" s="1">
+        <v>21.150580000000001</v>
+      </c>
+      <c r="I73">
+        <v>107300</v>
+      </c>
+      <c r="J73">
+        <v>2402142</v>
+      </c>
+      <c r="K73">
+        <v>22.387</v>
+      </c>
+      <c r="L73">
+        <v>27.381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>67</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.87586229999999998</v>
+      </c>
+      <c r="H74" s="1">
+        <v>21.077439999999999</v>
+      </c>
+      <c r="I74">
+        <v>69851</v>
+      </c>
+      <c r="J74">
+        <v>1598796</v>
+      </c>
+      <c r="K74">
+        <v>22.888999999999999</v>
+      </c>
+      <c r="L74">
+        <v>26.530999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>68</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.83247550000000003</v>
+      </c>
+      <c r="H75" s="1">
+        <v>20.78669</v>
+      </c>
+      <c r="I75">
+        <v>98837</v>
+      </c>
+      <c r="J75">
+        <v>2158988</v>
+      </c>
+      <c r="K75">
+        <v>21.844000000000001</v>
+      </c>
+      <c r="L75">
+        <v>25.957999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>69</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.87900639999999997</v>
+      </c>
+      <c r="H76" s="1">
+        <v>21.574539999999999</v>
+      </c>
+      <c r="I76">
+        <v>75568</v>
+      </c>
+      <c r="J76">
+        <v>1682324</v>
+      </c>
+      <c r="K76">
+        <v>22.262</v>
+      </c>
+      <c r="L76">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>70</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.81880980000000003</v>
+      </c>
+      <c r="H77" s="1">
+        <v>22.037590000000002</v>
+      </c>
+      <c r="I77">
+        <v>107817</v>
+      </c>
+      <c r="J77">
+        <v>2556972</v>
+      </c>
+      <c r="K77">
+        <v>23.716000000000001</v>
+      </c>
+      <c r="L77">
+        <v>28.001000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="G78" s="1">
+        <v>0.88777910000000004</v>
+      </c>
+      <c r="H78" s="1">
+        <v>20.87649</v>
+      </c>
+      <c r="I78">
+        <v>65580</v>
+      </c>
+      <c r="J78">
+        <v>1581078</v>
+      </c>
+      <c r="K78">
+        <v>24.109000000000002</v>
+      </c>
+      <c r="L78">
+        <v>25.821999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="G79" s="1">
+        <v>0.82668079999999999</v>
+      </c>
+      <c r="H79" s="1">
+        <v>25.417999999999999</v>
+      </c>
+      <c r="I79">
+        <v>101662</v>
+      </c>
+      <c r="J79">
+        <v>2730530</v>
+      </c>
+      <c r="K79">
+        <v>26.859000000000002</v>
+      </c>
+      <c r="L79">
+        <v>32.789000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="G80" s="1">
+        <v>0.85613839999999997</v>
+      </c>
+      <c r="H80" s="1">
+        <v>20.8446</v>
+      </c>
+      <c r="I80">
+        <v>85380</v>
+      </c>
+      <c r="J80">
+        <v>1961536</v>
+      </c>
+      <c r="K80">
+        <v>22.974</v>
+      </c>
+      <c r="L80">
+        <v>25.373999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="G81" s="1">
+        <v>0.83717870000000005</v>
+      </c>
+      <c r="H81" s="1">
+        <v>20.194050000000001</v>
+      </c>
+      <c r="I81">
+        <v>96135</v>
+      </c>
+      <c r="J81">
+        <v>2164587</v>
+      </c>
+      <c r="K81">
+        <v>22.515999999999998</v>
+      </c>
+      <c r="L81">
+        <v>25.131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="G82" s="1">
+        <v>0.87474700000000005</v>
+      </c>
+      <c r="H82" s="1">
+        <v>20.32497</v>
+      </c>
+      <c r="I82">
+        <v>72898</v>
+      </c>
+      <c r="J82">
+        <v>1605979</v>
+      </c>
+      <c r="K82">
+        <v>22.03</v>
+      </c>
+      <c r="L82">
+        <v>25.068000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="G83" s="1">
+        <v>0.81192120000000001</v>
+      </c>
+      <c r="H83" s="1">
+        <v>29.010010000000001</v>
+      </c>
+      <c r="I83">
+        <v>120463</v>
+      </c>
+      <c r="J83">
+        <v>3361696</v>
+      </c>
+      <c r="K83">
+        <v>27.905999999999999</v>
+      </c>
+      <c r="L83">
+        <v>37.600999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="G84" s="1">
+        <v>0.9147499</v>
+      </c>
+      <c r="H84" s="1">
+        <v>19.682600000000001</v>
+      </c>
+      <c r="I84">
+        <v>48216</v>
+      </c>
+      <c r="J84">
+        <v>1029167</v>
+      </c>
+      <c r="K84">
+        <v>21.344999999999999</v>
+      </c>
+      <c r="L84">
+        <v>23.065999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="G85" s="1">
+        <v>0.90298250000000002</v>
+      </c>
+      <c r="H85" s="1">
+        <v>18.88768</v>
+      </c>
+      <c r="I85">
+        <v>55016</v>
+      </c>
+      <c r="J85">
+        <v>1153691</v>
+      </c>
+      <c r="K85">
+        <v>20.97</v>
+      </c>
+      <c r="L85">
+        <v>22.873999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="G86" s="1">
+        <v>0.87736429999999999</v>
+      </c>
+      <c r="H86" s="1">
+        <v>23.087230000000002</v>
+      </c>
+      <c r="I86">
+        <v>70846</v>
+      </c>
+      <c r="J86">
+        <v>1749219</v>
+      </c>
+      <c r="K86">
+        <v>24.69</v>
+      </c>
+      <c r="L86">
+        <v>28.949000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="G87" s="1">
+        <v>0.88069830000000004</v>
+      </c>
+      <c r="H87" s="1">
+        <v>23.10275</v>
+      </c>
+      <c r="I87">
+        <v>69052</v>
+      </c>
+      <c r="J87">
+        <v>1680614</v>
+      </c>
+      <c r="K87">
+        <v>24.338000000000001</v>
+      </c>
+      <c r="L87">
+        <v>28.481999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.85527470000000005</v>
+      </c>
+      <c r="H88" s="1">
+        <v>19.151109999999999</v>
+      </c>
+      <c r="I88">
+        <v>83906</v>
+      </c>
+      <c r="J88">
+        <v>1715365</v>
+      </c>
+      <c r="K88">
+        <v>20.443999999999999</v>
+      </c>
+      <c r="L88">
+        <v>23.643999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.85102239999999996</v>
+      </c>
+      <c r="H89" s="1">
+        <v>22.40634</v>
+      </c>
+      <c r="I89">
+        <v>90196</v>
+      </c>
+      <c r="J89">
+        <v>2085922</v>
+      </c>
+      <c r="K89">
+        <v>23.126999999999999</v>
+      </c>
+      <c r="L89">
+        <v>28.076000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.88911039999999997</v>
+      </c>
+      <c r="H90" s="1">
+        <v>17.70091</v>
+      </c>
+      <c r="I90">
+        <v>62844</v>
+      </c>
+      <c r="J90">
+        <v>1219406</v>
+      </c>
+      <c r="K90">
+        <v>19.404</v>
+      </c>
+      <c r="L90">
+        <v>21.349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.84981930000000006</v>
+      </c>
+      <c r="H91" s="1">
+        <v>24.898319999999998</v>
+      </c>
+      <c r="I91">
+        <v>87821</v>
+      </c>
+      <c r="J91">
+        <v>2277891</v>
+      </c>
+      <c r="K91">
+        <v>25.937999999999999</v>
+      </c>
+      <c r="L91">
+        <v>31.530999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.8648922</v>
+      </c>
+      <c r="H92" s="1">
+        <v>19.295010000000001</v>
+      </c>
+      <c r="I92">
+        <v>77390</v>
+      </c>
+      <c r="J92">
+        <v>1607030</v>
+      </c>
+      <c r="K92">
+        <v>20.765000000000001</v>
+      </c>
+      <c r="L92">
+        <v>23.710999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G93" s="1">
+        <v>0.82518590000000003</v>
+      </c>
+      <c r="H93" s="1">
+        <v>22.077449999999999</v>
+      </c>
+      <c r="I93">
+        <v>101599</v>
+      </c>
+      <c r="J93">
+        <v>2370750</v>
+      </c>
+      <c r="K93">
+        <v>23.334</v>
+      </c>
+      <c r="L93">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G94" s="1">
+        <v>0.84022549999999996</v>
+      </c>
+      <c r="H94" s="1">
+        <v>20.623570000000001</v>
+      </c>
+      <c r="I94">
+        <v>90413</v>
+      </c>
+      <c r="J94">
+        <v>2015694</v>
+      </c>
+      <c r="K94">
+        <v>22.294</v>
+      </c>
+      <c r="L94">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G95" s="1">
+        <v>0.89992380000000005</v>
+      </c>
+      <c r="H95" s="1">
+        <v>17.785769999999999</v>
+      </c>
+      <c r="I95">
+        <v>56828</v>
+      </c>
+      <c r="J95">
+        <v>1155141</v>
+      </c>
+      <c r="K95">
+        <v>20.327000000000002</v>
+      </c>
+      <c r="L95">
+        <v>21.812000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" t="s">
-        <v>111</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.83707189999999998</v>
+      </c>
+      <c r="H96" s="1">
+        <v>24.918050000000001</v>
+      </c>
+      <c r="I96">
+        <v>93708</v>
+      </c>
+      <c r="J96">
+        <v>2427935</v>
+      </c>
+      <c r="K96">
+        <v>25.91</v>
+      </c>
+      <c r="L96">
+        <v>32.018999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.86204230000000004</v>
+      </c>
+      <c r="H97" s="1">
+        <v>19.209569999999999</v>
+      </c>
+      <c r="I97">
+        <v>80017</v>
+      </c>
+      <c r="J97">
+        <v>1680214</v>
+      </c>
+      <c r="K97">
+        <v>20.998000000000001</v>
+      </c>
+      <c r="L97">
+        <v>23.829000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.82202750000000002</v>
+      </c>
+      <c r="H98" s="1">
+        <v>21.967089999999999</v>
+      </c>
+      <c r="I98">
+        <v>108532</v>
+      </c>
+      <c r="J98">
+        <v>2465820</v>
+      </c>
+      <c r="K98">
+        <v>22.72</v>
+      </c>
+      <c r="L98">
+        <v>28.062999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.87054929999999997</v>
+      </c>
+      <c r="H99" s="1">
+        <v>17.7575</v>
+      </c>
+      <c r="I99">
+        <v>74786</v>
+      </c>
+      <c r="J99">
+        <v>1504217</v>
+      </c>
+      <c r="K99">
+        <v>20.114000000000001</v>
+      </c>
+      <c r="L99">
+        <v>21.920999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.78805650000000005</v>
+      </c>
+      <c r="H100" s="1">
+        <v>22.439109999999999</v>
+      </c>
+      <c r="I100">
+        <v>127063</v>
+      </c>
+      <c r="J100">
+        <v>2972474</v>
+      </c>
+      <c r="K100">
+        <v>23.393999999999998</v>
+      </c>
+      <c r="L100">
+        <v>28.536000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.84509480000000003</v>
+      </c>
+      <c r="H101" s="1">
+        <v>18.63241</v>
+      </c>
+      <c r="I101">
+        <v>90221</v>
+      </c>
+      <c r="J101">
+        <v>1827003</v>
+      </c>
+      <c r="K101">
+        <v>20.25</v>
+      </c>
+      <c r="L101">
+        <v>23.167000000000002</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H111">
+    <sortCondition ref="B5:B111"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/good_rbrush/keepingtabs_goodrbrush.xlsx
+++ b/good_rbrush/keepingtabs_goodrbrush.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinson_lab/Documents/RAD2/good_rbrush/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05569929-EAE1-F44B-9165-A1BEF1446A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339DC0BE-E298-004A-A446-A9E3B3C5510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2060" windowWidth="32820" windowHeight="19300" activeTab="1" xr2:uid="{91869BB1-4A8F-8E4D-BA74-EB15BB630210}"/>
+    <workbookView xWindow="40560" yWindow="500" windowWidth="32820" windowHeight="19300" activeTab="3" xr2:uid="{91869BB1-4A8F-8E4D-BA74-EB15BB630210}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="with O and G" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2 with O and G" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -430,13 +432,337 @@
   </si>
   <si>
     <t>mean_cov_ns</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ABQ_FY_S_01</t>
+  </si>
+  <si>
+    <t>ABQ_FY_S_02</t>
+  </si>
+  <si>
+    <t>ABQ_FY_S_03</t>
+  </si>
+  <si>
+    <t>BOU_FY_C_01</t>
+  </si>
+  <si>
+    <t>BOU_FY_C_02</t>
+  </si>
+  <si>
+    <t>BOU_FY_C_03</t>
+  </si>
+  <si>
+    <t>BOU_FY_S_01</t>
+  </si>
+  <si>
+    <t>BOU_FY_S_02</t>
+  </si>
+  <si>
+    <t>BOU_FY_S_03</t>
+  </si>
+  <si>
+    <t>DRY_FY_N_01</t>
+  </si>
+  <si>
+    <t>DRY_FY_N_02</t>
+  </si>
+  <si>
+    <t>DRY_FY_N_03</t>
+  </si>
+  <si>
+    <t>GUN_FY_F_01</t>
+  </si>
+  <si>
+    <t>GUN_FY_F_02</t>
+  </si>
+  <si>
+    <t>GUN_FY_F_03</t>
+  </si>
+  <si>
+    <t>LOG_FY_S_01</t>
+  </si>
+  <si>
+    <t>LOG_FY_S_02</t>
+  </si>
+  <si>
+    <t>LOG_FY_S_03</t>
+  </si>
+  <si>
+    <t>MAL_FY_C_01</t>
+  </si>
+  <si>
+    <t>MAL_FY_C_02</t>
+  </si>
+  <si>
+    <t>MAL_FY_C_03</t>
+  </si>
+  <si>
+    <t>MAL_FY_M_01</t>
+  </si>
+  <si>
+    <t>MAL_FY_M_02</t>
+  </si>
+  <si>
+    <t>MAL_FY_M_03</t>
+  </si>
+  <si>
+    <t>MAL_FY_N_01</t>
+  </si>
+  <si>
+    <t>MAL_FY_N_02</t>
+  </si>
+  <si>
+    <t>MAL_FY_N_03</t>
+  </si>
+  <si>
+    <t>MOB_FY_C_01</t>
+  </si>
+  <si>
+    <t>MOB_FY_C_02</t>
+  </si>
+  <si>
+    <t>MOB_FY_C_03</t>
+  </si>
+  <si>
+    <t>MOB_FY_G_01</t>
+  </si>
+  <si>
+    <t>MOB_FY_G_02</t>
+  </si>
+  <si>
+    <t>MOB_FY_G_03</t>
+  </si>
+  <si>
+    <t>MOB_FY_S_01</t>
+  </si>
+  <si>
+    <t>MOB_FY_S_02</t>
+  </si>
+  <si>
+    <t>MOB_FY_S_03</t>
+  </si>
+  <si>
+    <t>MTB_FY_F_01</t>
+  </si>
+  <si>
+    <t>MTB_FY_F_02</t>
+  </si>
+  <si>
+    <t>MTB_FY_F_03</t>
+  </si>
+  <si>
+    <t>PAS_FY_X_01</t>
+  </si>
+  <si>
+    <t>PAS_FY_X_02</t>
+  </si>
+  <si>
+    <t>PAS_FY_X_03</t>
+  </si>
+  <si>
+    <t>RFY_FY_C_01</t>
+  </si>
+  <si>
+    <t>RFY_FY_C_02</t>
+  </si>
+  <si>
+    <t>RFY_FY_C_03</t>
+  </si>
+  <si>
+    <t>RFY_FY_HC_01</t>
+  </si>
+  <si>
+    <t>RFY_FY_HC_02</t>
+  </si>
+  <si>
+    <t>RFY_FY_HC_03</t>
+  </si>
+  <si>
+    <t>RFY_FY_HS_01</t>
+  </si>
+  <si>
+    <t>RFY_FY_HS_02</t>
+  </si>
+  <si>
+    <t>RFY_FY_HS_03</t>
+  </si>
+  <si>
+    <t>RFY_FY_S_01</t>
+  </si>
+  <si>
+    <t>RFY_FY_S_02</t>
+  </si>
+  <si>
+    <t>RFY_FY_S_03</t>
+  </si>
+  <si>
+    <t>RGG_FY_C_01</t>
+  </si>
+  <si>
+    <t>RGG_FY_C_02</t>
+  </si>
+  <si>
+    <t>RGG_FY_C_03</t>
+  </si>
+  <si>
+    <t>RGG_FY_S_01</t>
+  </si>
+  <si>
+    <t>RGG_FY_S_02</t>
+  </si>
+  <si>
+    <t>RGG_FY_S_03</t>
+  </si>
+  <si>
+    <t>SLV_FY_F_01</t>
+  </si>
+  <si>
+    <t>SLV_FY_F_02</t>
+  </si>
+  <si>
+    <t>SLV_FY_F_03</t>
+  </si>
+  <si>
+    <t>SLV_FY_M_01</t>
+  </si>
+  <si>
+    <t>SLV_FY_M_02</t>
+  </si>
+  <si>
+    <t>SLV_FY_M_03</t>
+  </si>
+  <si>
+    <t>SLV_FY_O_01</t>
+  </si>
+  <si>
+    <t>SLV_FY_O_02</t>
+  </si>
+  <si>
+    <t>SLV_FY_O_03</t>
+  </si>
+  <si>
+    <t>SNM_FY_C_01</t>
+  </si>
+  <si>
+    <t>SNM_FY_C_02</t>
+  </si>
+  <si>
+    <t>SNM_FY_C_03</t>
+  </si>
+  <si>
+    <t>SNM_FY_M_01</t>
+  </si>
+  <si>
+    <t>SNM_FY_M_02</t>
+  </si>
+  <si>
+    <t>SNM_FY_M_03</t>
+  </si>
+  <si>
+    <t>SNM_FY_S_01</t>
+  </si>
+  <si>
+    <t>SNM_FY_S_02</t>
+  </si>
+  <si>
+    <t>SNM_FY_S_03</t>
+  </si>
+  <si>
+    <t>TES_FY_C_01</t>
+  </si>
+  <si>
+    <t>TES_FY_C_02</t>
+  </si>
+  <si>
+    <t>TES_FY_C_03</t>
+  </si>
+  <si>
+    <t>TES_FY_M_01</t>
+  </si>
+  <si>
+    <t>TES_FY_M_02</t>
+  </si>
+  <si>
+    <t>TES_FY_M_03</t>
+  </si>
+  <si>
+    <t>TES_FY_N_01</t>
+  </si>
+  <si>
+    <t>TES_FY_N_02</t>
+  </si>
+  <si>
+    <t>TES_FY_N_03</t>
+  </si>
+  <si>
+    <t>TES_FY_S_01</t>
+  </si>
+  <si>
+    <t>TES_FY_S_02</t>
+  </si>
+  <si>
+    <t>TES_FY_S_03</t>
+  </si>
+  <si>
+    <t>TRE_FY_F_01</t>
+  </si>
+  <si>
+    <t>TRE_FY_F_02</t>
+  </si>
+  <si>
+    <t>TRE_FY_F_03</t>
+  </si>
+  <si>
+    <t>TRQ_FY_F_01</t>
+  </si>
+  <si>
+    <t>TRQ_FY_F_02</t>
+  </si>
+  <si>
+    <t>TRQ_FY_F_03</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Showing 78 to 96 of 96 entries, 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,6 +780,25 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,11 +824,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48A005D-7026-4F40-B9E1-C7FFB83FE6D9}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4679,5 +5027,2607 @@
     <sortCondition ref="B5:B111"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31599BD1-2A06-F54A-B682-52CD2015FC6F}">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B102">
+    <sortCondition ref="B1:B102"/>
+    <sortCondition ref="A1:A102"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BAD5AE-6295-8B49-AC2B-7423BBE7AE10}">
+  <dimension ref="A1:P185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87:P184"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="6"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+    </row>
+    <row r="115" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+    </row>
+    <row r="116" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+    </row>
+    <row r="117" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+    </row>
+    <row r="118" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+    </row>
+    <row r="119" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+    </row>
+    <row r="120" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+    </row>
+    <row r="121" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+    </row>
+    <row r="122" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+    </row>
+    <row r="123" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+    </row>
+    <row r="124" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+    </row>
+    <row r="125" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+    </row>
+    <row r="126" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+    </row>
+    <row r="127" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+    </row>
+    <row r="128" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+    </row>
+    <row r="129" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+    </row>
+    <row r="130" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+    </row>
+    <row r="131" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+    </row>
+    <row r="132" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+    </row>
+    <row r="133" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+    </row>
+    <row r="134" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+    </row>
+    <row r="135" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+    </row>
+    <row r="136" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+    </row>
+    <row r="137" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+    </row>
+    <row r="138" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+    </row>
+    <row r="139" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+    </row>
+    <row r="140" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+    </row>
+    <row r="141" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+    </row>
+    <row r="142" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+    </row>
+    <row r="143" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+    </row>
+    <row r="144" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+    </row>
+    <row r="145" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+    </row>
+    <row r="146" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+    </row>
+    <row r="147" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+    </row>
+    <row r="148" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+    </row>
+    <row r="149" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+    </row>
+    <row r="150" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+    </row>
+    <row r="151" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+    </row>
+    <row r="152" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+    </row>
+    <row r="153" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+    </row>
+    <row r="154" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+    </row>
+    <row r="155" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+    </row>
+    <row r="156" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+    </row>
+    <row r="157" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+    </row>
+    <row r="158" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+    </row>
+    <row r="159" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+    </row>
+    <row r="160" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+    </row>
+    <row r="161" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+    </row>
+    <row r="162" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+    </row>
+    <row r="163" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+    </row>
+    <row r="164" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+    </row>
+    <row r="165" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+    </row>
+    <row r="166" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+    </row>
+    <row r="167" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+    </row>
+    <row r="168" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+    </row>
+    <row r="169" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+    </row>
+    <row r="170" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+    </row>
+    <row r="171" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+    </row>
+    <row r="172" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+    </row>
+    <row r="173" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+    </row>
+    <row r="174" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+    </row>
+    <row r="175" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+    </row>
+    <row r="176" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+    </row>
+    <row r="177" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+    </row>
+    <row r="178" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+    </row>
+    <row r="179" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+    </row>
+    <row r="180" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+    </row>
+    <row r="181" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+    </row>
+    <row r="182" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+    </row>
+    <row r="183" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+    </row>
+    <row r="184" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+    </row>
+    <row r="185" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="N185" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B96">
+    <sortCondition ref="B1:B96"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>